--- a/data/trans_camb/P2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,01</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,76</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-8,62</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,42</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,58</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,79</t>
+          <t>-3,34; 6,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 2,7</t>
+          <t>-8,56; 2,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 1,2</t>
+          <t>-11,06; 1,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 0,99</t>
+          <t>-12,86; 1,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 10,21</t>
+          <t>-0,61; 14,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 2,74</t>
+          <t>-0,61; 16,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -4,21</t>
+          <t>-4,58; 9,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 10,2</t>
+          <t>-13,81; 1,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,29</t>
+          <t>-21,55; -3,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,09</t>
+          <t>-11,98; 4,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -3,42</t>
+          <t>-2,6; 12,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 2,75</t>
+          <t>-8,75; 4,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 5,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; 0,39</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -3,24</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; -0,06</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 11,17</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 8,41</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-3,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,33%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>-14,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-4,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,31</t>
+          <t>-3,46; 6,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 2,83</t>
+          <t>-9,06; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,27</t>
+          <t>-11,46; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 0,97</t>
+          <t>-13,4; 1,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 11,94</t>
+          <t>-0,61; 16,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 2,52</t>
+          <t>-0,54; 20,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -4,83</t>
+          <t>-4,76; 10,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 11,96</t>
+          <t>-14,71; 1,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,0</t>
+          <t>-23,69; -4,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,01</t>
+          <t>-12,5; 4,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,83</t>
+          <t>-2,81; 15,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 3,05</t>
+          <t>-9,06; 4,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 6,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 0,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; -3,56</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; -0,19</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 13,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 9,57</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 0,96</t>
+          <t>-22,61; 0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,85</t>
+          <t>-14,56; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 0,02</t>
+          <t>-21,49; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 1,98</t>
+          <t>-5,36; 5,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,02</t>
+          <t>-10,71; 2,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,23</t>
+          <t>-6,86; 7,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,07</t>
+          <t>-5,81; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 1,36</t>
+          <t>-3,9; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,86</t>
+          <t>-5,03; 3,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 2,14</t>
+          <t>-5,19; 4,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,04</t>
+          <t>-1,5; 7,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,01</t>
+          <t>1,74; 13,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 0,4</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 2,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; -0,39</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 3,49</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 3,26</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 8,58</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 1,01</t>
+          <t>-23,72; 0,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 4,17</t>
+          <t>-15,77; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -0,04</t>
+          <t>-22,69; 0,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 2,04</t>
+          <t>-5,55; 5,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,38</t>
+          <t>-11,16; 2,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,66</t>
+          <t>-7,35; 9,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,49</t>
+          <t>-6,11; 3,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 1,33</t>
+          <t>-4,04; 4,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,93</t>
+          <t>-5,22; 4,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,33</t>
+          <t>-5,43; 5,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 0,01</t>
+          <t>-1,55; 8,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,01</t>
+          <t>1,9; 15,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 0,43</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 2,19</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; -0,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 3,74</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 3,55</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 10,0</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 2,02</t>
+          <t>-3,11; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,52</t>
+          <t>-1,6; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,0</t>
+          <t>-2,56; 4,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,39</t>
+          <t>-0,69; 6,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,97</t>
+          <t>-3,96; 2,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 2,13</t>
+          <t>-4,34; 2,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,2</t>
+          <t>-5,02; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,37</t>
+          <t>-4,34; 2,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 0,61</t>
+          <t>-3,71; 2,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,56</t>
+          <t>-0,12; 5,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,28</t>
+          <t>-9,01; -1,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,85</t>
+          <t>-7,33; 1,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 2,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 2,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 2,57</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 5,03</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; -0,25</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 0,93</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 2,15</t>
+          <t>-3,24; 4,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,92</t>
+          <t>-1,67; 5,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,32</t>
+          <t>-2,66; 5,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,03</t>
+          <t>-0,75; 7,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 1,03</t>
+          <t>-4,03; 2,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,32</t>
+          <t>-4,42; 2,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,37</t>
+          <t>-5,14; 2,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,58</t>
+          <t>-4,52; 2,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 0,56</t>
+          <t>-3,8; 2,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,74</t>
+          <t>-0,12; 5,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,44</t>
+          <t>-9,2; -1,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,13</t>
+          <t>-7,58; 1,22</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 2,21</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 3,02</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,76</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 5,4</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; -0,26</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 0,97</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,4</t>
+          <t>-3,23; 4,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,94</t>
+          <t>-2,03; 4,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,05</t>
+          <t>-1,45; 5,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,32</t>
+          <t>0,59; 6,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -0,67</t>
+          <t>-6,62; 0,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,7</t>
+          <t>-6,58; 0,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,61</t>
+          <t>-5,9; -0,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,71</t>
+          <t>-3,06; 1,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,76</t>
+          <t>-3,0; 1,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,28</t>
+          <t>-3,52; 2,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,45</t>
+          <t>-3,13; 3,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,56</t>
+          <t>-3,26; 2,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 0,99</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 2,51</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 3,56</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 0,64</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 0,33</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,76</t>
+          <t>-3,38; 4,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,31</t>
+          <t>-2,11; 5,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,44</t>
+          <t>-1,49; 5,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,89</t>
+          <t>0,63; 7,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,83; -0,72</t>
+          <t>-6,75; 0,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,78</t>
+          <t>-6,68; 0,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,69</t>
+          <t>-6,02; -0,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,82</t>
+          <t>-3,13; 2,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,79</t>
+          <t>-3,06; 1,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,41</t>
+          <t>-3,56; 2,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,58</t>
+          <t>-3,2; 3,48</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,77</t>
+          <t>-3,32; 2,52</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 1,02</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 2,76</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 2,65</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 3,77</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 0,66</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 0,34</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,18</t>
+          <t>-4,9; 0,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,17</t>
+          <t>-5,96; 0,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,08</t>
+          <t>-6,05; 0,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,32</t>
+          <t>-6,04; -0,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,15</t>
+          <t>-4,47; 3,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,84</t>
+          <t>-4,94; 3,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,28</t>
+          <t>-3,78; 4,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,17</t>
+          <t>-3,75; 4,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,12</t>
+          <t>-4,15; 4,18</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,32</t>
+          <t>-6,87; 5,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,45</t>
+          <t>-2,89; 9,17</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,6</t>
+          <t>-3,96; 3,39</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 2,25</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 1,35</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 1,17</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 1,91</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 4,83</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 2,45</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-2,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,19</t>
+          <t>-4,93; 0,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,15</t>
+          <t>-6,01; 0,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,08</t>
+          <t>-6,08; 0,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 0,32</t>
+          <t>-6,09; -0,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,59</t>
+          <t>-4,6; 3,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,32</t>
+          <t>-5,05; 3,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,63</t>
+          <t>-3,92; 5,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,79</t>
+          <t>-3,85; 5,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,22</t>
+          <t>-4,34; 4,53</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,39</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,51</t>
+          <t>-2,96; 10,47</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,74</t>
+          <t>-4,04; 3,58</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,37</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 1,45</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 1,22</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 2,01</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 5,28</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 2,56</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-3,98</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,97</t>
+          <t>-0,73; 8,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 6,8</t>
+          <t>-3,14; 6,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,15</t>
+          <t>-0,06; 7,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 8,45</t>
+          <t>-1,71; 7,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 1,64</t>
+          <t>-11,36; 0,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 1,95</t>
+          <t>-12,25; 0,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 1,16</t>
+          <t>-7,19; 1,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,26</t>
+          <t>-9,04; 2,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,94</t>
+          <t>-13,26; 1,49</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 2,5</t>
+          <t>-6,29; 2,33</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,62</t>
+          <t>-5,97; 5,0</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,29</t>
+          <t>-9,03; 1,78</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 2,91</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 3,34</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 3,04</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 3,9</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 2,12</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; -0,32</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,73</t>
+          <t>-0,75; 8,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 7,53</t>
+          <t>-3,22; 7,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,05</t>
+          <t>-0,06; 8,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 9,51</t>
+          <t>-1,76; 8,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 1,73</t>
+          <t>-11,62; 0,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 2,09</t>
+          <t>-12,6; 0,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 1,17</t>
+          <t>-7,51; 1,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,63</t>
+          <t>-9,53; 2,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,14</t>
+          <t>-13,79; 1,56</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,68</t>
+          <t>-6,51; 2,46</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 2,78</t>
+          <t>-6,2; 5,5</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,74</t>
+          <t>-9,24; 1,59</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 3,14</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 3,54</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 3,23</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 4,18</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 2,24</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; -0,34</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,11</t>
+          <t>-3,42; 1,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,71</t>
+          <t>-2,79; 1,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,79</t>
+          <t>-3,78; 0,89</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,96</t>
+          <t>-1,14; 2,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,41</t>
+          <t>-3,28; 0,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,03</t>
+          <t>-2,66; 1,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -1,11</t>
+          <t>-3,17; 0,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,07</t>
+          <t>-3,62; 0,32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,17</t>
+          <t>-5,37; -0,86</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,33</t>
+          <t>-2,06; 1,74</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -0,73</t>
+          <t>-1,77; 2,37</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,46</t>
+          <t>-2,22; 1,55</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 0,42</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,36</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; -0,62</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 1,52</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,84</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,06</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,16</t>
+          <t>-3,58; 1,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,83</t>
+          <t>-2,96; 1,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,84</t>
+          <t>-3,98; 0,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,08</t>
+          <t>-1,2; 2,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,44</t>
+          <t>-3,4; 0,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,01</t>
+          <t>-2,76; 1,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -1,17</t>
+          <t>-3,32; 0,64</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,2</t>
+          <t>-3,79; 0,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,17</t>
+          <t>-5,64; -0,91</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,37</t>
+          <t>-2,15; 1,83</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,79</t>
+          <t>-1,85; 2,52</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,55</t>
+          <t>-2,31; 1,63</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 0,45</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 0,39</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; -0,66</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 1,61</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 0,89</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 1,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
